--- a/kb.xlsx
+++ b/kb.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbs1bank-my.sharepoint.com/personal/gaoyangao_dbs_com/Documents/gaoyan/93 KB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoyangao\git_project\IVY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1017" documentId="CBFA6040CA9C533BB91B23B4971BCE1C151863D7" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{3EAEABF1-88F4-49FB-AF80-690425EAE09D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,6 @@
     <definedName name="Base_Rate">DCI!$W$7:$X$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -74,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="420">
   <si>
     <t>for all other country, the cust_id is country ISO code + CIF, for singapore, cin + cin suffix</t>
   </si>
@@ -245,9 +243,6 @@
     <t>git commit</t>
   </si>
   <si>
-    <t>git commit -a which will automatically notice any modified (but not new) files, add them to the index, and commit, all in one step.</t>
-  </si>
-  <si>
     <t>git push origin master</t>
   </si>
   <si>
@@ -356,12 +351,6 @@
   </si>
   <si>
     <t>script is namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git pull origin master</t>
-  </si>
-  <si>
-    <t>git - show graph</t>
   </si>
   <si>
     <t>Shortcut</t>
@@ -2115,6 +2104,64 @@
       </rPr>
       <t> would substitute</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit -a </t>
+  </si>
+  <si>
+    <t>which will automatically notice any modified (but not new) files, add them to the index, and commit, all in one step.</t>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+  </si>
+  <si>
+    <t>git show</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
+    <t>config file: ~/.gitconfig</t>
+  </si>
+  <si>
+    <t>git config user.name gaoyan0629</t>
+  </si>
+  <si>
+    <t>gaoyan0629 will be configured under .gitconfig</t>
+  </si>
+  <si>
+    <t>git config --global user.email</t>
+  </si>
+  <si>
+    <t>set globle user for all the project</t>
+  </si>
+  <si>
+    <t>git config credential.helper store
+git push</t>
+  </si>
+  <si>
+    <t>.git-credentials</t>
+  </si>
+  <si>
+    <t>git checkout HEAD~2 foo.py</t>
+  </si>
+  <si>
+    <t>For example, the following command makes foo.py in the working directory match the one from the 2nd-to-last commit:</t>
+  </si>
+  <si>
+    <t>git reset HEAD foo.py will unstage foo.py</t>
+  </si>
+  <si>
+    <t>reset will reset both file and commit ( from index )</t>
+  </si>
+  <si>
+    <t>git pull ( merge )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ref is anything pointing to a commit, for example, branches (heads), tags, and remote branches. </t>
+  </si>
+  <si>
+    <t>When you fetch, Git gathers any commits from the target branch that do not exist in your current branch and stores them in your local repository. However, it does not merge them with your current branch. This is particularly useful if you need to keep your repository up to date, but are working on something that might break if you update your files. To integrate the commits into your master branch, you use merge</t>
   </si>
 </sst>
 </file>
@@ -2371,6 +2418,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2385,9 +2435,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2405,6 +2452,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3990975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35549A0-7F47-4D10-8356-79A6C4E5899A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="3990975" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2767,154 +2880,154 @@
     </row>
     <row r="4" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2926,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,197 +3051,197 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+    <row r="38" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3153,218 +3266,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3388,17 +3501,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="315" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3422,22 +3535,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3582,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3477,7 +3590,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3599,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3494,20 +3607,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3515,13 +3628,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3537,7 +3650,7 @@
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3545,13 +3658,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -3561,7 +3674,7 @@
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3569,37 +3682,37 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -3620,10 +3733,10 @@
     </row>
     <row r="24" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,42 +3749,42 @@
     </row>
     <row r="28" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3717,32 +3830,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3785,61 +3898,61 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" t="s">
-        <v>328</v>
-      </c>
       <c r="Q1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="S1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3850,7 +3963,7 @@
         <v>43116</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D2" s="16">
         <f>B2+2</f>
@@ -3860,13 +3973,13 @@
         <v>43147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I2" s="1">
         <v>200000</v>
@@ -3881,7 +3994,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N2" s="1">
         <v>5</v>
@@ -3891,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q2" s="1">
         <v>200833</v>
@@ -3913,7 +4026,7 @@
         <v>43117</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D3" s="16">
         <f>B3+2</f>
@@ -3923,13 +4036,13 @@
         <v>43148</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" t="s">
         <v>252</v>
-      </c>
-      <c r="G3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" t="s">
-        <v>255</v>
       </c>
       <c r="I3" s="1">
         <v>100000</v>
@@ -3944,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N3" s="1">
         <v>5</v>
@@ -3954,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q3" s="1">
         <v>76009</v>
@@ -3976,7 +4089,7 @@
         <v>43120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D4" s="16">
         <v>43122</v>
@@ -3985,13 +4098,13 @@
         <v>43151</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="I4" s="1">
         <v>100000</v>
@@ -4006,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N4" s="1">
         <v>4.5</v>
@@ -4016,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="1">
         <v>100375</v>
@@ -4038,7 +4151,7 @@
         <v>43130</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D5" s="16">
         <f>B5+2</f>
@@ -4048,13 +4161,13 @@
         <v>43159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I5" s="1">
         <v>100097</v>
@@ -4069,7 +4182,7 @@
         <v>200</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N5" s="1">
         <v>4.4000000000000004</v>
@@ -4079,7 +4192,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
@@ -4098,7 +4211,7 @@
         <v>43132</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D6" s="16">
         <v>43136</v>
@@ -4107,13 +4220,13 @@
         <v>43161</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
         <v>252</v>
       </c>
-      <c r="G6" t="s">
-        <v>255</v>
-      </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I6" s="1">
         <v>132363</v>
@@ -4128,7 +4241,7 @@
         <v>160</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N6" s="1">
         <v>3.5</v>
@@ -4138,7 +4251,7 @@
         <v>1.32</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="1"/>
@@ -4157,7 +4270,7 @@
         <v>43133</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D7" s="16">
         <v>43137</v>
@@ -4166,13 +4279,13 @@
         <v>43165</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I7" s="1">
         <v>29800</v>
@@ -4187,7 +4300,7 @@
         <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
@@ -4197,7 +4310,7 @@
         <v>1.05</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="1"/>
@@ -4208,7 +4321,7 @@
         <v>130.375</v>
       </c>
       <c r="W7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X7">
         <v>1.32</v>
@@ -4222,7 +4335,7 @@
         <v>43145</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D8" s="16">
         <v>43178</v>
@@ -4231,13 +4344,13 @@
         <v>43173</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" t="s">
         <v>252</v>
       </c>
-      <c r="G8" t="s">
-        <v>255</v>
-      </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I8" s="1">
         <v>76009</v>
@@ -4252,7 +4365,7 @@
         <v>150</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N8" s="1">
         <v>6.5</v>
@@ -4270,7 +4383,7 @@
         <v>543.46435000000008</v>
       </c>
       <c r="W8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="X8">
         <v>1.05</v>
@@ -4284,7 +4397,7 @@
         <v>43145</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D9" s="16">
         <v>43173</v>
@@ -4293,13 +4406,13 @@
         <v>43173</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I9" s="1">
         <v>100000</v>
@@ -4314,7 +4427,7 @@
         <v>150</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N9" s="1">
         <v>6.5</v>
@@ -4332,7 +4445,7 @@
         <v>541.66666666666663</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="X9" s="1">
         <v>1.82</v>
@@ -4346,7 +4459,7 @@
         <v>43145</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D10" s="16">
         <v>43173</v>
@@ -4355,13 +4468,13 @@
         <v>43173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I10" s="1">
         <v>100833</v>
@@ -4376,7 +4489,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N10" s="1">
         <v>5</v>
@@ -4394,7 +4507,7 @@
         <v>420.13749999999999</v>
       </c>
       <c r="W10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -4408,7 +4521,7 @@
         <v>43152</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D11" s="16">
         <v>43181</v>
@@ -4417,13 +4530,13 @@
         <v>43181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I11" s="1">
         <v>100375</v>
@@ -4438,7 +4551,7 @@
         <v>170</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N11" s="1">
         <v>6</v>
@@ -4464,7 +4577,7 @@
         <v>43159</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D12" s="16">
         <v>43187</v>
@@ -4473,13 +4586,13 @@
         <v>43192</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I12" s="1">
         <v>100464.02233333333</v>
@@ -4494,7 +4607,7 @@
         <v>130</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N12" s="1">
         <v>6</v>
@@ -4520,7 +4633,7 @@
         <v>43160</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D13" s="16">
         <v>43160</v>
@@ -4529,13 +4642,13 @@
         <v>43191</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I13" s="1">
         <v>169107.08121019107</v>
@@ -4550,7 +4663,7 @@
         <v>150</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N13" s="1">
         <v>6</v>
@@ -4576,7 +4689,7 @@
         <v>43161</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D14" s="16">
         <v>43192</v>
@@ -4585,13 +4698,13 @@
         <v>43192</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I14" s="1">
         <v>29924.166666666668</v>
@@ -4606,7 +4719,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
@@ -4648,10 +4761,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,10 +4772,10 @@
         <v>43089</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,7 +4783,7 @@
         <v>43112</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4684,7 +4797,7 @@
         <v>43242</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -4695,7 +4808,7 @@
         <v>43395</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C5">
         <v>20000</v>
@@ -4722,53 +4835,53 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4801,120 +4914,120 @@
     </row>
     <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="390" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,420 +5038,420 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B46" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="23" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B71" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="135" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B78" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B82" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B83" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B96" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B97" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B98" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B99" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B103" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B105" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B110" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5367,129 +5480,129 @@
   <sheetData>
     <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" t="s">
         <v>307</v>
-      </c>
-      <c r="F19" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5527,31 +5640,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,7 +5694,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -5620,99 +5733,161 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" style="14" customWidth="1"/>
     <col min="3" max="3" width="19" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
-        <v>1.4666666666666599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>382</v>
+      <c r="B13" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/kb.xlsx
+++ b/kb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="15120" windowHeight="7695" tabRatio="964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="2" r:id="rId1"/>
@@ -17,19 +17,22 @@
     <sheet name="DCI" sheetId="25" r:id="rId3"/>
     <sheet name="PW" sheetId="24" r:id="rId4"/>
     <sheet name="python" sheetId="23" r:id="rId5"/>
-    <sheet name="VIM" sheetId="10" r:id="rId6"/>
-    <sheet name="excel short key" sheetId="27" r:id="rId7"/>
-    <sheet name="SQL" sheetId="7" r:id="rId8"/>
-    <sheet name="git" sheetId="14" r:id="rId9"/>
-    <sheet name="ipython short key" sheetId="18" r:id="rId10"/>
-    <sheet name="notebook" sheetId="17" r:id="rId11"/>
-    <sheet name="unicode" sheetId="20" r:id="rId12"/>
-    <sheet name="NOSQL Model Product" sheetId="19" r:id="rId13"/>
-    <sheet name="Interview - Full" sheetId="4" r:id="rId14"/>
-    <sheet name="Interview - Fasttrack" sheetId="5" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId7"/>
+    <sheet name="JIRA" sheetId="30" r:id="rId8"/>
+    <sheet name="VIM" sheetId="10" r:id="rId9"/>
+    <sheet name="excel short key" sheetId="27" r:id="rId10"/>
+    <sheet name="SQL" sheetId="7" r:id="rId11"/>
+    <sheet name="git" sheetId="14" r:id="rId12"/>
+    <sheet name="ipython short key" sheetId="18" r:id="rId13"/>
+    <sheet name="notebook" sheetId="17" r:id="rId14"/>
+    <sheet name="unicode" sheetId="20" r:id="rId15"/>
+    <sheet name="NOSQL Model Product" sheetId="19" r:id="rId16"/>
+    <sheet name="Interview - Full" sheetId="4" r:id="rId17"/>
+    <sheet name="Interview - Fasttrack" sheetId="5" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DCI!$A$1:$U$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DCI!$A$1:$U$18</definedName>
     <definedName name="Base_Rate">DCI!$W$7:$X$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="432">
   <si>
     <t>for all other country, the cust_id is country ISO code + CIF, for singapore, cin + cin suffix</t>
   </si>
@@ -788,9 +791,6 @@
   </si>
   <si>
     <t>Teradata</t>
-  </si>
-  <si>
-    <t>gaoyangao/~QingDao123</t>
   </si>
   <si>
     <t>ctrl-v ctrl-m</t>
@@ -1622,12 +1622,6 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>divest</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
     <t>Redundant array of independent disks (RAID) is a technique for storing the same data on multiple hard disks to increase read performance and fault tolerance. In a properly configured RAID storage system, the loss of any single disk will not interfere with users' ability to access the data stored on the failed disk.
 RAID has become a standard but transparent feature in both enterprise-class and consumer-class storage products. RAID storage systems aren't new or sexy, so they've fallen out of the limelight as a feature that vendors promote. "When you go to a car dealership, how often do they tell you about the tires on the car?" asked Greg Schulz, founder and senior analyst with StorageIO Group, a Stillwater, Minn.,-based technology analyst and consulting firm. "RAID's taken for granted. It's a feature. It's a standard function."</t>
   </si>
@@ -2162,6 +2156,74 @@
   </si>
   <si>
     <t>When you fetch, Git gathers any commits from the target branch that do not exist in your current branch and stores them in your local repository. However, it does not merge them with your current branch. This is particularly useful if you need to keep your repository up to date, but are working on something that might break if you update your files. To integrate the commits into your master branch, you use merge</t>
+  </si>
+  <si>
+    <t>Tot Amt</t>
+  </si>
+  <si>
+    <t>Upgrading pip
+Even if you have a modern version of Python with pip prepackaged, it may be out of date by the time you read the guide. Fortunately, it has the wonderfully useful ability to upgrade itself, like so:
+pip install -U pip
+or on Windows:
+python -m pip install -U pip
+The different upgrade command in Windows is necessary because in Windows it is not possible to overwrite a running executable. With this upgrade command, the running executable is actually python.exe, which makes pip.exe available to overwrite.</t>
+  </si>
+  <si>
+    <t>gaoyangao/~WeiFang123</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>If he continues looking over his shoulder at your past amours, suggest to him, gently, that he is lousing up what otherwise would be very happy times</t>
+  </si>
+  <si>
+    <t>The Singapore Smart Nation project is a first of its kind.
+As an island nation, with no natural resource, the country has always had to turn to innovation in a bid to ensure progress. Now with an ageing population and increasing urban density, Singapore hopes that through the Smart Nation initiative, technology will assist in easing the pressure on healthcare, public transport and energy systems in the country.
+Singapore make’s its claim as one of the smartest cities in the world through its innovative use of water recycling, vitally important in a nation state with small water reserves, as well as its impressive Gardens by the Bay project, which houses a nature reserve in downtown Singapore including 18 massive artificial trees that do everything from act as a giant solar panels to collecting rainwater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The standard and most widely used implementation of Python is CPython, which is programmed in C. CPython has a C API to create extensions, but this approach of extending Python is complicated, tedious, and error-prone. You have to manually code everything from data conversion to garbage collection. Leaving even a small detail unattended increases the likelihood of crashes. Given these problems, I will not discuss this approach to extending Python. </t>
+  </si>
+  <si>
+    <t>I'm writing software for a new hardware device which I want any kind of new third-party application to be able to access if they want to.
+The software will be a native process (C++) that should be pollable by 3rd party games and applications that want to support the hardware device. Those 3rd party apps should also be able to receive events from the native process, on a subscribe basis. So aside from the native process, I'll also supply "connector" libraries to the 3rd party developers, for all platforms/languages that they might choose (Java, C++, Python etc.) to embed in their apps so they can easily connect to the device with hardly any extra code needing to be written by them. I want to target all desktop/laptop OS platforms, and have a pretty good idea of what functions I want to expose, but ideally I don't want to be too stuck (i.e. I want it to be elegantly scalable from both client and server perspectives).
+I'm looking for reliability going forward, performance, maintainability going forward, and cross-platform/language flexibility going forward, and ease of development, in that order.
+What should I use?
+CORBA, MessagePack-RPC, Thrift, or something else entirely?</t>
+  </si>
+  <si>
+    <t>To avoid having to download such files, you can try:
+pip install --use-wheel pillow</t>
+  </si>
+  <si>
+    <t>The tag format is {python tag}-{abi tag}-{platform tag}
+python tag
+‘py27’, ‘cp33’
+abi tag
+‘cp32dmu’, ‘none’
+platform tag
+‘linux_x86_64’, ‘any’
+For example, the tag py27-none-any indicates compatible with Python 2.7 (any Python 2.7 implementation) with no abi requirement, on any platform.</t>
+  </si>
+  <si>
+    <t>import pip
+print(pip.pep425tags.get_supported())</t>
+  </si>
+  <si>
+    <t>put the path into sys.path
+touch __init__.py
+import dmv1
+from dmv1 import util</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w01cdcifjir1a.reg1.1bank.dbs.com:8443/secure/Dashboard.jspa </t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2436,6 +2498,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2880,154 +2943,154 @@
     </row>
     <row r="4" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>344</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>346</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>348</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3036,6 +3099,435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99A14D-4639-414F-B2D1-538E293F24AC}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="117.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="138" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
@@ -3111,137 +3603,137 @@
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -3486,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -3519,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -3562,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E32"/>
@@ -3733,10 +4225,10 @@
     </row>
     <row r="24" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,42 +4241,42 @@
     </row>
     <row r="28" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
@@ -3817,45 +4309,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDA206-DD20-4348-A15F-0C776AAD5629}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>263</v>
+    <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF929F95-E3CD-4F5A-965C-D6829CEB93AB}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:R14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +4392,7 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
@@ -3891,68 +4400,68 @@
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>323</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1" t="s">
-        <v>325</v>
-      </c>
       <c r="Q1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="S1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3963,7 +4472,7 @@
         <v>43116</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D2" s="16">
         <f>B2+2</f>
@@ -3973,13 +4482,13 @@
         <v>43147</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" s="1">
         <v>200000</v>
@@ -3994,17 +4503,17 @@
         <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N2" s="1">
         <v>5</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:O14" si="0">VLOOKUP(G2,Base_Rate,2,FALSE)</f>
+        <f t="shared" ref="O2:O15" si="0">VLOOKUP(G2,Base_Rate,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q2" s="1">
         <v>200833</v>
@@ -4026,7 +4535,7 @@
         <v>43117</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D3" s="16">
         <f>B3+2</f>
@@ -4036,13 +4545,13 @@
         <v>43148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" t="s">
         <v>251</v>
-      </c>
-      <c r="H3" t="s">
-        <v>252</v>
       </c>
       <c r="I3" s="1">
         <v>100000</v>
@@ -4057,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N3" s="1">
         <v>5</v>
@@ -4067,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q3" s="1">
         <v>76009</v>
@@ -4089,7 +4598,7 @@
         <v>43120</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D4" s="16">
         <v>43122</v>
@@ -4098,13 +4607,13 @@
         <v>43151</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="I4" s="1">
         <v>100000</v>
@@ -4119,7 +4628,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N4" s="1">
         <v>4.5</v>
@@ -4129,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="1">
         <v>100375</v>
@@ -4151,7 +4660,7 @@
         <v>43130</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D5" s="16">
         <f>B5+2</f>
@@ -4161,13 +4670,13 @@
         <v>43159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="1">
         <v>100097</v>
@@ -4182,25 +4691,25 @@
         <v>200</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N5" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>132128.04</v>
+        <v>131227.16699999999</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="2"/>
-        <v>484.46948000000009</v>
+        <v>481.16627900000003</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -4211,7 +4720,7 @@
         <v>43132</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D6" s="16">
         <v>43136</v>
@@ -4220,13 +4729,13 @@
         <v>43161</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I6" s="1">
         <v>132363</v>
@@ -4241,25 +4750,25 @@
         <v>160</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N6" s="1">
         <v>3.5</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="1"/>
-        <v>174719.16</v>
+        <v>173527.89299999998</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>509.59755000000001</v>
+        <v>506.12302124999997</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -4270,7 +4779,7 @@
         <v>43133</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D7" s="16">
         <v>43137</v>
@@ -4279,13 +4788,13 @@
         <v>43165</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I7" s="1">
         <v>29800</v>
@@ -4293,38 +4802,38 @@
       <c r="J7" s="1">
         <v>0.8</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="28">
         <v>0.80649999999999999</v>
       </c>
       <c r="L7" s="1">
         <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="1"/>
-        <v>31290</v>
+        <v>30366.199999999997</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>130.375</v>
+        <v>126.52583333333332</v>
       </c>
       <c r="W7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X7">
-        <v>1.32</v>
+        <v>1.3109999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -4335,7 +4844,7 @@
         <v>43145</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D8" s="16">
         <v>43178</v>
@@ -4344,13 +4853,13 @@
         <v>43173</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="1">
         <v>76009</v>
@@ -4365,28 +4874,28 @@
         <v>150</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N8" s="1">
         <v>6.5</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="1"/>
-        <v>100331.88</v>
-      </c>
-      <c r="S8" s="1">
+        <v>99647.798999999999</v>
+      </c>
+      <c r="S8" s="27">
         <f t="shared" si="2"/>
-        <v>543.46435000000008</v>
+        <v>539.75891124999998</v>
       </c>
       <c r="W8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X8">
-        <v>1.05</v>
+        <v>1.0189999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -4397,7 +4906,7 @@
         <v>43145</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D9" s="16">
         <v>43173</v>
@@ -4406,13 +4915,13 @@
         <v>43173</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9" s="1">
         <v>100000</v>
@@ -4427,7 +4936,7 @@
         <v>150</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N9" s="1">
         <v>6.5</v>
@@ -4440,12 +4949,12 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="27">
         <f t="shared" si="2"/>
         <v>541.66666666666663</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X9" s="1">
         <v>1.82</v>
@@ -4459,7 +4968,7 @@
         <v>43145</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D10" s="16">
         <v>43173</v>
@@ -4468,13 +4977,13 @@
         <v>43173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="1">
         <v>100833</v>
@@ -4489,7 +4998,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N10" s="1">
         <v>5</v>
@@ -4502,12 +5011,12 @@
         <f t="shared" si="1"/>
         <v>100833</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="27">
         <f t="shared" si="2"/>
         <v>420.13749999999999</v>
       </c>
       <c r="W10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -4521,7 +5030,7 @@
         <v>43152</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D11" s="16">
         <v>43181</v>
@@ -4530,13 +5039,13 @@
         <v>43181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="1">
         <v>100375</v>
@@ -4551,7 +5060,7 @@
         <v>170</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N11" s="1">
         <v>6</v>
@@ -4564,7 +5073,7 @@
         <f t="shared" ref="R11" si="3">I11*O11</f>
         <v>100375</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="27">
         <f t="shared" ref="S11" si="4">I11*N11/1200*O11</f>
         <v>501.875</v>
       </c>
@@ -4577,7 +5086,7 @@
         <v>43159</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D12" s="16">
         <v>43187</v>
@@ -4586,13 +5095,13 @@
         <v>43192</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" s="1">
         <v>100464.02233333333</v>
@@ -4607,22 +5116,22 @@
         <v>130</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N12" s="1">
         <v>6</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ref="R12:R14" si="5">I12*O12</f>
-        <v>132612.50948000001</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:S14" si="6">I12*N12/1200*O12</f>
-        <v>663.06254739999997</v>
+        <v>131708.33327899998</v>
+      </c>
+      <c r="S12" s="27">
+        <f t="shared" ref="S12:S18" si="6">I12*N12/1200*O12</f>
+        <v>658.54166639499999</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -4633,7 +5142,7 @@
         <v>43160</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D13" s="16">
         <v>43160</v>
@@ -4642,13 +5151,13 @@
         <v>43191</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" s="1">
         <v>169107.08121019107</v>
@@ -4663,22 +5172,22 @@
         <v>150</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N13" s="1">
         <v>6</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="5"/>
-        <v>177562.43527070063</v>
-      </c>
-      <c r="S13" s="1">
+        <v>172320.11575318468</v>
+      </c>
+      <c r="S13" s="27">
         <f t="shared" si="6"/>
-        <v>887.81217635350311</v>
+        <v>861.60057876592339</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -4689,7 +5198,7 @@
         <v>43161</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D14" s="16">
         <v>43192</v>
@@ -4698,13 +5207,13 @@
         <v>43192</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I14" s="1">
         <v>29924.166666666668</v>
@@ -4719,99 +5228,328 @@
         <v>100</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="5"/>
-        <v>31420.375000000004</v>
-      </c>
-      <c r="S14" s="1">
+        <f>I14*O14</f>
+        <v>30492.72583333333</v>
+      </c>
+      <c r="S14" s="27">
         <f t="shared" si="6"/>
-        <v>104.73458333333333</v>
+        <v>101.64241944444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>43179</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="16">
+        <v>43210</v>
+      </c>
+      <c r="E15" s="16">
+        <v>43210</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="1">
+        <v>101305</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="K15" s="27">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>40</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ref="R15:R18" si="7">I15*O15</f>
+        <v>101305</v>
+      </c>
+      <c r="S15" s="27">
+        <f t="shared" si="6"/>
+        <v>379.89375000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43179</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="16">
+        <v>43210</v>
+      </c>
+      <c r="E16" s="16">
+        <v>43210</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100509</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="K16" s="27">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>40</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16:O18" si="8">VLOOKUP(G16,Base_Rate,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>100509</v>
+      </c>
+      <c r="S16" s="27">
+        <f t="shared" si="6"/>
+        <v>376.90875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>43179</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="16">
+        <v>43210</v>
+      </c>
+      <c r="E17" s="16">
+        <v>43210</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="1">
+        <v>76420</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1.38</v>
+      </c>
+      <c r="L17" s="1">
+        <v>240</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>100186.62</v>
+      </c>
+      <c r="S17" s="27">
+        <f t="shared" si="6"/>
+        <v>333.95539999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>43180</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="16">
+        <v>43211</v>
+      </c>
+      <c r="E18" s="16">
+        <v>43211</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100844</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.3188</v>
+      </c>
+      <c r="K18" s="27">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>77</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>100844</v>
+      </c>
+      <c r="S18" s="27">
+        <f t="shared" si="6"/>
+        <v>294.12833333333333</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U10" xr:uid="{759AE808-2A3B-4AFD-8119-311B61C56DD4}"/>
+  <autoFilter ref="A1:U18" xr:uid="{759AE808-2A3B-4AFD-8119-311B61C56DD4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA0827-13EF-4328-AE48-020EBA437B06}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>43089</v>
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>43112</v>
       </c>
       <c r="B2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>738137</v>
+      </c>
+      <c r="E2" s="16">
+        <v>43173</v>
+      </c>
+      <c r="F2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>43112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
+      <c r="G2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3">
-        <v>738137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>43242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>43395</v>
-      </c>
-      <c r="B5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5">
-        <v>20000</v>
+        <v>742400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>D3-D2</f>
+        <v>4263</v>
       </c>
     </row>
   </sheetData>
@@ -4821,16 +5559,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075EE9D0-F19D-4090-8A6C-0B4720F776E6}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" customWidth="1"/>
+    <col min="2" max="2" width="162.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,13 +5622,92 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FCFEBE-FEEF-48C2-8B0C-8680EEABE6A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EE84D-4E4F-4E6D-95BF-B716010CD76B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9DA1A7-C36E-4BD8-ADB5-F853990CAF83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DA4C0783-426F-4184-8D47-B4EE0F96BB2C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C114"/>
@@ -5027,7 +5844,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5038,420 +5855,420 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>182</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B71" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="135" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="105" x14ac:dyDescent="0.25">
       <c r="B78" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B82" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B83" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="90" x14ac:dyDescent="0.25">
       <c r="B96" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B97" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B98" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B99" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B102" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B103" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B105" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B110" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5461,433 +6278,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99A14D-4639-414F-B2D1-538E293F24AC}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="117.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="360" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="138" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>